--- a/AdminInputData.xlsx
+++ b/AdminInputData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Admin" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
   <si>
     <t>idTest</t>
   </si>
@@ -34,9 +34,6 @@
     <t>pass</t>
   </si>
   <si>
-    <t>Field</t>
-  </si>
-  <si>
     <t>ValidateLogin</t>
   </si>
   <si>
@@ -47,9 +44,6 @@
   </si>
   <si>
     <t>qwerty123</t>
-  </si>
-  <si>
-    <t>n/a</t>
   </si>
 </sst>
 </file>
@@ -195,20 +189,20 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
+      <selection pane="bottomLeft" activeCell="E1" activeCellId="0" sqref="E1:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.8348214285714"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.2276785714286"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.84375"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.4285714285714"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.5982142857143"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.26785714285714"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.4821428571429"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.9910714285714"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.6071428571429"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.0714285714286"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.3616071428571"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.15178571428571"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="3" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -221,11 +215,9 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="E1" s="2"/>
     </row>
-    <row r="2" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" s="3" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -238,26 +230,22 @@
       <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="B3" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="C3" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="D3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>9</v>
-      </c>
+      <c r="E3" s="5"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/AdminInputData.xlsx
+++ b/AdminInputData.xlsx
@@ -5,10 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Admin" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="CatalogueManagement" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="9">
   <si>
     <t>idTest</t>
   </si>
@@ -44,6 +45,9 @@
   </si>
   <si>
     <t>qwerty123</t>
+  </si>
+  <si>
+    <t>ViewCatalogueManagementPage</t>
   </si>
 </sst>
 </file>
@@ -186,20 +190,19 @@
   </sheetPr>
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E1" activeCellId="0" sqref="E1:E4"/>
+      <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.4821428571429"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.9910714285714"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.6071428571429"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.0714285714286"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.3616071428571"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.15178571428571"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.1294642857143"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.7589285714286"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.3705357142857"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.8348214285714"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.125"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -256,4 +259,77 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.6651785714286"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.9910714285714"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="3" customFormat="true" ht="16.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" s="3" customFormat="true" ht="16.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="5"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/AdminInputData.xlsx
+++ b/AdminInputData.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="19">
   <si>
     <t>idTest</t>
   </si>
@@ -47,7 +47,37 @@
     <t>qwerty123</t>
   </si>
   <si>
+    <t>shortName</t>
+  </si>
+  <si>
+    <t>longName</t>
+  </si>
+  <si>
+    <t>introDateDaysJump</t>
+  </si>
+  <si>
+    <t>exitDateDaysJump</t>
+  </si>
+  <si>
+    <t>configurationSet</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
     <t>ViewCatalogueManagementPage</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>AddNewCatalogue</t>
+  </si>
+  <si>
+    <t>auto_test_catalogue</t>
+  </si>
+  <si>
+    <t>auto_test_catalogue_please_ignore</t>
   </si>
 </sst>
 </file>
@@ -58,7 +88,7 @@
     <numFmt numFmtId="164" formatCode="GENERAL"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -95,6 +125,13 @@
       <name val="Century Gothic"/>
       <family val="2"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF000000"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -146,7 +183,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -168,6 +205,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -193,7 +234,7 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="A3" activeCellId="1" sqref="I3:J3 A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -266,16 +307,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
+      <selection pane="topLeft" activeCell="I3" activeCellId="0" sqref="I3:J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.6651785714286"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.9910714285714"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.9375"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.6160714285714"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.2589285714286"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="16.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -291,7 +335,24 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2"/>
+      <c r="E1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2" s="3" customFormat="true" ht="16.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
@@ -310,7 +371,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>5</v>
@@ -321,7 +382,44 @@
       <c r="D3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="5"/>
+      <c r="E3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>18</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/AdminInputData.xlsx
+++ b/AdminInputData.xlsx
@@ -1,27 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="990" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Admin" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="CatalogueManagement" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Admin" sheetId="1" r:id="rId1"/>
+    <sheet name="CatalogueManagement" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="19">
   <si>
     <t>idTest</t>
   </si>
@@ -53,12 +47,6 @@
     <t>longName</t>
   </si>
   <si>
-    <t>introDateDaysJump</t>
-  </si>
-  <si>
-    <t>exitDateDaysJump</t>
-  </si>
-  <si>
     <t>configurationSet</t>
   </si>
   <si>
@@ -78,38 +66,25 @@
   </si>
   <si>
     <t>auto_test_catalogue_please_ignore</t>
+  </si>
+  <si>
+    <t>Config</t>
+  </si>
+  <si>
+    <t>it is auto test description</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
-    <numFmt numFmtId="165" formatCode="@"/>
-  </numFmts>
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Century Gothic"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -119,7 +94,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Century Gothic"/>
@@ -143,110 +118,363 @@
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A3" activeCellId="1" sqref="I3:J3 A3"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.1294642857143"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.7589285714286"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.3705357142857"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.8348214285714"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.125"/>
+    <col min="1" max="1" width="31.7109375"/>
+    <col min="2" max="2" width="12.5703125"/>
+    <col min="3" max="3" width="19.140625"/>
+    <col min="4" max="4" width="17.5703125"/>
+    <col min="5" max="5" width="16.85546875"/>
+    <col min="6" max="1025" width="8.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:5" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -261,7 +489,7 @@
       </c>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" s="3" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:5" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -276,14 +504,14 @@
       </c>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="4" t="s">
@@ -292,37 +520,32 @@
       <c r="E3" s="5"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:J5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AMJ5"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I3" activeCellId="0" sqref="I3:J3"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.6651785714286"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.9910714285714"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.9375"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.6160714285714"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.2589285714286"/>
+    <col min="1" max="1" width="30.28515625"/>
+    <col min="2" max="2" width="8.5703125"/>
+    <col min="3" max="3" width="11.42578125"/>
+    <col min="4" max="4" width="9.85546875"/>
+    <col min="5" max="5" width="23"/>
+    <col min="6" max="6" width="21"/>
+    <col min="7" max="7" width="15"/>
+    <col min="8" max="1025" width="8.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="true" ht="16.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:1024" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -347,14 +570,11 @@
       <c r="H1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>13</v>
-      </c>
+      <c r="AMH1"/>
+      <c r="AMI1"/>
+      <c r="AMJ1"/>
     </row>
-    <row r="2" s="3" customFormat="true" ht="16.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:1024" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -367,65 +587,78 @@
       <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="2"/>
+      <c r="E2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AMH2"/>
+      <c r="AMI2"/>
+      <c r="AMJ2"/>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="0" t="s">
+    <row r="3" spans="1:1024" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:1024" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="0" t="s">
+      <c r="H5" t="s">
         <v>18</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>

--- a/AdminInputData.xlsx
+++ b/AdminInputData.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="20">
   <si>
     <t>idTest</t>
   </si>
@@ -78,6 +78,9 @@
   </si>
   <si>
     <t>it is auto test description</t>
+  </si>
+  <si>
+    <t>DeleteCatalogue</t>
   </si>
 </sst>
 </file>
@@ -234,17 +237,17 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A3" activeCellId="1" sqref="I1:I3 A3"/>
+      <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="31.2991071428571"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.4017857142857"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.8973214285714"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.3616071428571"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.65625"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.50446428571429"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.8303571428571"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.1651785714286"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.6607142857143"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.125"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.4196428571429"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.38839285714286"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -308,23 +311,23 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1:I3"/>
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.8839285714286"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.50446428571429"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.2232142857143"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.6875"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.6785714285714"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.6696428571429"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="14.7633928571429"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="26.7410714285714"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.50446428571429"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.53125"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.38839285714286"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.1026785714286"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.56696428571429"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.3258928571429"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.3169642857143"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="14.5267857142857"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="26.4598214285714"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.38839285714286"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="20.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -435,6 +438,33 @@
         <v>18</v>
       </c>
       <c r="I5" s="5"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="5"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/AdminInputData.xlsx
+++ b/AdminInputData.xlsx
@@ -1,17 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HOME\IdeaProjects\EPAM_PROJECTS\ADIDAS\adidas_auto\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="1"/>
+    <workbookView xWindow="930" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="990" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Admin" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="CatalogueManagement" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Admin" sheetId="1" r:id="rId1"/>
+    <sheet name="CatalogueManagement" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="152511" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -86,33 +90,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
-    <numFmt numFmtId="165" formatCode="@"/>
-  </numFmts>
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Century Gothic"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -122,7 +107,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Century Gothic"/>
@@ -137,120 +122,362 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="10">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="7">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.8303571428571"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.1651785714286"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.6607142857143"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.125"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.4196428571429"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.38839285714286"/>
+    <col min="1" max="1" width="30.85546875"/>
+    <col min="2" max="2" width="12.140625"/>
+    <col min="3" max="3" width="18.7109375"/>
+    <col min="4" max="4" width="17.140625"/>
+    <col min="5" max="5" width="16.42578125"/>
+    <col min="6" max="1025" width="8.42578125"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:5" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -265,7 +492,7 @@
       </c>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:5" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -280,14 +507,14 @@
       </c>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="4" t="s">
@@ -296,103 +523,95 @@
       <c r="E3" s="5"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.53125"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.38839285714286"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.1026785714286"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.56696428571429"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.3258928571429"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.3169642857143"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="14.5267857142857"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="26.4598214285714"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.38839285714286"/>
+    <col min="1" max="1" width="29.5703125"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" customWidth="1"/>
+    <col min="5" max="5" width="35.28515625" customWidth="1"/>
+    <col min="6" max="6" width="34.28515625" customWidth="1"/>
+    <col min="7" max="7" width="23.140625" customWidth="1"/>
+    <col min="8" max="8" width="26.42578125"/>
+    <col min="9" max="1025" width="8.42578125"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="true" ht="20.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" s="3" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="5" t="s">
@@ -409,68 +628,67 @@
       </c>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I4" s="5"/>
     </row>
-    <row r="5" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="E5" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="0" t="s">
+      <c r="F5" t="s">
         <v>16</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="0" t="s">
+      <c r="H5" t="s">
         <v>18</v>
       </c>
       <c r="I5" s="5"/>
     </row>
-    <row r="7" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="E7" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="0" t="s">
+      <c r="F7" t="s">
         <v>16</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="0" t="s">
+      <c r="H7" t="s">
         <v>18</v>
       </c>
       <c r="I7" s="5"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
